--- a/mu_data.xlsx
+++ b/mu_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="18750" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="18750" windowHeight="7020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="awgn_16000_7" sheetId="1" r:id="rId1"/>
@@ -17548,7 +17548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -20019,7 +20019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>

--- a/mu_data.xlsx
+++ b/mu_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="18750" windowHeight="7020" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="18750" windowHeight="7020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="awgn_16000_7" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="t1_16000_7" sheetId="3" r:id="rId3"/>
     <sheet name="flat_awgn_7" sheetId="4" r:id="rId4"/>
     <sheet name="de_awgn_1600_7" sheetId="5" r:id="rId5"/>
+    <sheet name="flat_window_awgn" sheetId="10" r:id="rId6"/>
+    <sheet name="de_window_awgn" sheetId="11" r:id="rId7"/>
+    <sheet name="t1_16000_window" sheetId="12" r:id="rId8"/>
+    <sheet name="t2_16000_window" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="9">
   <si>
     <t>awgn_16000.wav</t>
   </si>
@@ -33,6 +37,18 @@
   </si>
   <si>
     <t>de_awgn_16000.wav</t>
+  </si>
+  <si>
+    <t>C:/msys64/home/ninoc/github/audio/flat_awgn_16000.wav</t>
+  </si>
+  <si>
+    <t>C:/msys64/home/ninoc/github/audio/de_awgn_16000.wav</t>
+  </si>
+  <si>
+    <t>C:/msys64/home/ninoc/github/audio/t1_16000.wav</t>
+  </si>
+  <si>
+    <t>C:/msys64/home/ninoc/github/audio/t2_16000.wav</t>
   </si>
 </sst>
 </file>
@@ -517,7 +533,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -613,7 +633,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Track 1 Decodes</c:v>
+            <c:v>Track 1</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1181,7 +1201,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Track 2 Decodes</c:v>
+            <c:v>Track 2</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1443,6 +1463,758 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>t2_16000_7!$D$1:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Track 1 Window</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>t1_16000_window!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>t1_16000_window!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Track 2 Window</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>t2_16000_window!$C$1:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,623 +2574,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>t1_16000_7!$C$1:$C$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>t1_16000_7!$D$1:$D$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
-                <c:pt idx="0">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>919</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>894</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>893</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>928</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>924</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>891</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>904</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>869</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>841</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>869</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>871</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>870</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="199633152"/>
-        <c:axId val="199643136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="199633152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199643136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="199643136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199633152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2454,12 +2609,12 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Flat AWGN</c:v>
+            <c:v>Flat</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4876,13 +5031,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>De-Emph AWGN</c:v>
+            <c:v>De-Emph</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7299,7 +7453,662 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Flat Window</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>flat_window_awgn!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>flat_window_awgn!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>De-Emph Window</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>de_window_awgn!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>de_window_awgn!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
         </c:ser>
         <c:axId val="199658880"/>
         <c:axId val="199664768"/>
@@ -7308,6 +8117,8 @@
         <c:axId val="199658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -7339,6 +8150,8 @@
         <c:axId val="199664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="840"/>
+          <c:min val="700"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -7353,7 +8166,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Decoded Packets</a:t>
+                  <a:t>Decoded Packets out of 1000</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7382,7 +8195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -9892,45 +10705,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -9958,16 +10736,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.59047</cdr:x>
-      <cdr:y>0.13353</cdr:y>
+      <cdr:x>0.46657</cdr:x>
+      <cdr:y>0.27201</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79086</cdr:x>
-      <cdr:y>0.18868</cdr:y>
+      <cdr:x>0.66695</cdr:x>
+      <cdr:y>0.32716</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9976,8 +10754,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5781674" y="876300"/>
-          <a:ext cx="1962151" cy="361950"/>
+          <a:off x="5057311" y="1777359"/>
+          <a:ext cx="2172108" cy="360374"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10017,7 +10795,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17549,7 +18327,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20011,7 +20789,6 @@
     <sortCondition ref="C1:C90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20019,8 +20796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31217,4 +31994,2836 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30" s="3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D43" s="3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D46" s="3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D47" s="3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D48" s="3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D49" s="3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D50" s="3">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="4">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D22" s="4">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="4">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D32" s="4">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D34" s="4">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D38" s="4">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="4">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="D40" s="4">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="4">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="4">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="D43" s="4">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D44" s="4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="4">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D46" s="4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D47" s="4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D48" s="4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="D49" s="4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="4">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D50" s="4">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D33" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D34" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D38" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D40" s="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="1">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D43" s="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D44" s="1">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D46" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D47" s="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D48" s="1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D49" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D50" s="1">
+        <v>914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mu_data.xlsx
+++ b/mu_data.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262795FF-EE2E-964B-A231-615783C427E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C08621-73D4-C942-8783-3B7552AC6DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="340" windowWidth="23060" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="340" windowWidth="23060" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_16000_7" sheetId="3" r:id="rId1"/>
-    <sheet name="t2_16000_7" sheetId="2" r:id="rId2"/>
-    <sheet name="t1_16000_window" sheetId="12" r:id="rId3"/>
-    <sheet name="t2_16000_window" sheetId="13" r:id="rId4"/>
-    <sheet name="awgn_16000_7" sheetId="1" r:id="rId5"/>
-    <sheet name="flat_awgn_7" sheetId="4" r:id="rId6"/>
-    <sheet name="de_awgn_1600_7" sheetId="5" r:id="rId7"/>
-    <sheet name="flat_window_awgn" sheetId="10" r:id="rId8"/>
-    <sheet name="de_window_awgn" sheetId="11" r:id="rId9"/>
+    <sheet name="t2_16000_dcdlimit" sheetId="15" r:id="rId2"/>
+    <sheet name="t1_16000_dcdlimit" sheetId="14" r:id="rId3"/>
+    <sheet name="t2_16000_7" sheetId="2" r:id="rId4"/>
+    <sheet name="t1_16000_window" sheetId="12" r:id="rId5"/>
+    <sheet name="t2_16000_window" sheetId="13" r:id="rId6"/>
+    <sheet name="awgn_16000_7" sheetId="1" r:id="rId7"/>
+    <sheet name="flat_awgn_7" sheetId="4" r:id="rId8"/>
+    <sheet name="de_awgn_1600_7" sheetId="5" r:id="rId9"/>
+    <sheet name="flat_window_awgn" sheetId="10" r:id="rId10"/>
+    <sheet name="de_window_awgn" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="11">
   <si>
     <t>awgn_16000.wav</t>
   </si>
@@ -68,6 +70,12 @@
   </si>
   <si>
     <t>C:/msys64/home/ninoc/github/audio/t2_16000.wav</t>
+  </si>
+  <si>
+    <t>/Users/ninocarrillo/github/audio/t1_16000.wav</t>
+  </si>
+  <si>
+    <t>/Users/ninocarrillo/github/audio/t2_16000.wav</t>
   </si>
 </sst>
 </file>
@@ -630,11 +638,27 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -647,17 +671,45 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>16k</a:t>
+              <a:t>16k sps, 7-tap equalizer</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> sps, 7-tap equalizer</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -671,6 +723,21 @@
           <c:tx>
             <c:v>Track 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1245,6 +1312,21 @@
           <c:tx>
             <c:v>Track 2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1783,6 +1865,21 @@
           <c:tx>
             <c:v>Track 1 Windowed Correlator</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2117,6 +2214,21 @@
           <c:tx>
             <c:v>Track 2 Windowed Correlator</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2442,6 +2554,704 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7A47-BE4B-BA48-DF28703BC6F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Track 1 DCD Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>t1_16000_dcdlimit!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>t1_16000_dcdlimit!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD9F-E746-B4DC-E838E1A216B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Track 2 DCD Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>t2_16000_dcdlimit!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>t2_16000_dcdlimit!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD9F-E746-B4DC-E838E1A216B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2465,32 +3275,107 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equalizer</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Gain</a:t>
+                  <a:t>Equalizer Gain</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="78370304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2504,15 +3389,37 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -2522,24 +3429,149 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="78404224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -10727,6 +11759,548 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11200,7 +12774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
@@ -12475,7 +14049,2867 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+      <c r="D10">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.17</v>
+      </c>
+      <c r="D18">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0.21</v>
+      </c>
+      <c r="D22">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.23</v>
+      </c>
+      <c r="D24">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.24</v>
+      </c>
+      <c r="D25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.26</v>
+      </c>
+      <c r="D27">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.27</v>
+      </c>
+      <c r="D28">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.32</v>
+      </c>
+      <c r="D33">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.33</v>
+      </c>
+      <c r="D34">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.34</v>
+      </c>
+      <c r="D35">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.36</v>
+      </c>
+      <c r="D37">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.38</v>
+      </c>
+      <c r="D39">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.39</v>
+      </c>
+      <c r="D40">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.42</v>
+      </c>
+      <c r="D43">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.45</v>
+      </c>
+      <c r="D46">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.46</v>
+      </c>
+      <c r="D47">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0.47</v>
+      </c>
+      <c r="D48">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0.48</v>
+      </c>
+      <c r="D49">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.49</v>
+      </c>
+      <c r="D50">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+      <c r="D10">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.17</v>
+      </c>
+      <c r="D18">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0.21</v>
+      </c>
+      <c r="D22">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.23</v>
+      </c>
+      <c r="D24">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.24</v>
+      </c>
+      <c r="D25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.26</v>
+      </c>
+      <c r="D27">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.27</v>
+      </c>
+      <c r="D28">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.32</v>
+      </c>
+      <c r="D33">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.33</v>
+      </c>
+      <c r="D34">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.34</v>
+      </c>
+      <c r="D35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.36</v>
+      </c>
+      <c r="D37">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.38</v>
+      </c>
+      <c r="D39">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.39</v>
+      </c>
+      <c r="D40">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.42</v>
+      </c>
+      <c r="D43">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.45</v>
+      </c>
+      <c r="D46">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.46</v>
+      </c>
+      <c r="D47">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0.47</v>
+      </c>
+      <c r="D48">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0.48</v>
+      </c>
+      <c r="D49">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.49</v>
+      </c>
+      <c r="D50">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764F6CDA-BE08-0A40-8309-47215B754240}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.17</v>
+      </c>
+      <c r="D18">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0.21</v>
+      </c>
+      <c r="D22">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.23</v>
+      </c>
+      <c r="D24">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.24</v>
+      </c>
+      <c r="D25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.26</v>
+      </c>
+      <c r="D27">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.27</v>
+      </c>
+      <c r="D28">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.32</v>
+      </c>
+      <c r="D33">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.33</v>
+      </c>
+      <c r="D34">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.34</v>
+      </c>
+      <c r="D35">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.36</v>
+      </c>
+      <c r="D37">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.38</v>
+      </c>
+      <c r="D39">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.39</v>
+      </c>
+      <c r="D40">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.42</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.45</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.46</v>
+      </c>
+      <c r="D47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0.47</v>
+      </c>
+      <c r="D48">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0.48</v>
+      </c>
+      <c r="D49">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.49</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0E3A1E-25F1-CC4E-AA73-0DBEBB8224F2}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+      <c r="D10">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.17</v>
+      </c>
+      <c r="D18">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0.21</v>
+      </c>
+      <c r="D22">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.23</v>
+      </c>
+      <c r="D24">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.24</v>
+      </c>
+      <c r="D25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.26</v>
+      </c>
+      <c r="D27">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.27</v>
+      </c>
+      <c r="D28">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D30">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.32</v>
+      </c>
+      <c r="D33">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.33</v>
+      </c>
+      <c r="D34">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.34</v>
+      </c>
+      <c r="D35">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.36</v>
+      </c>
+      <c r="D37">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.38</v>
+      </c>
+      <c r="D39">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.39</v>
+      </c>
+      <c r="D40">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.42</v>
+      </c>
+      <c r="D43">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.45</v>
+      </c>
+      <c r="D46">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.46</v>
+      </c>
+      <c r="D47">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0.47</v>
+      </c>
+      <c r="D48">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0.48</v>
+      </c>
+      <c r="D49">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.49</v>
+      </c>
+      <c r="D50">
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -13666,7 +18100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -14381,11 +18815,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -15100,7 +19534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E400"/>
   <sheetViews>
@@ -22309,7 +26743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D399"/>
   <sheetViews>
@@ -27911,7 +32345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D399"/>
   <sheetViews>
@@ -33511,1434 +37945,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.04</v>
-      </c>
-      <c r="D5">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.06</v>
-      </c>
-      <c r="D7">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D8">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>0.09</v>
-      </c>
-      <c r="D10">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.11</v>
-      </c>
-      <c r="D12">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0.12</v>
-      </c>
-      <c r="D13">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.13</v>
-      </c>
-      <c r="D14">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D15">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0.16</v>
-      </c>
-      <c r="D17">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>0.17</v>
-      </c>
-      <c r="D18">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0.18</v>
-      </c>
-      <c r="D19">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>0.19</v>
-      </c>
-      <c r="D20">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0.21</v>
-      </c>
-      <c r="D22">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0.22</v>
-      </c>
-      <c r="D23">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0.23</v>
-      </c>
-      <c r="D24">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>0.24</v>
-      </c>
-      <c r="D25">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
-      </c>
-      <c r="D26">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>0.26</v>
-      </c>
-      <c r="D27">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>0.27</v>
-      </c>
-      <c r="D28">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D29">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D30">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>0.3</v>
-      </c>
-      <c r="D31">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>0.31</v>
-      </c>
-      <c r="D32">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0.32</v>
-      </c>
-      <c r="D33">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0.33</v>
-      </c>
-      <c r="D34">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>0.34</v>
-      </c>
-      <c r="D35">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>0.35</v>
-      </c>
-      <c r="D36">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0.36</v>
-      </c>
-      <c r="D37">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>0.37</v>
-      </c>
-      <c r="D38">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>0.38</v>
-      </c>
-      <c r="D39">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>0.39</v>
-      </c>
-      <c r="D40">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>0.4</v>
-      </c>
-      <c r="D41">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>0.41</v>
-      </c>
-      <c r="D42">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>0.42</v>
-      </c>
-      <c r="D43">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>0.43</v>
-      </c>
-      <c r="D44">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0.44</v>
-      </c>
-      <c r="D45">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>0.45</v>
-      </c>
-      <c r="D46">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>0.46</v>
-      </c>
-      <c r="D47">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>0.47</v>
-      </c>
-      <c r="D48">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>0.48</v>
-      </c>
-      <c r="D49">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>0.49</v>
-      </c>
-      <c r="D50">
-        <v>680</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.04</v>
-      </c>
-      <c r="D5">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.06</v>
-      </c>
-      <c r="D7">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D8">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>0.09</v>
-      </c>
-      <c r="D10">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.11</v>
-      </c>
-      <c r="D12">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0.12</v>
-      </c>
-      <c r="D13">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.13</v>
-      </c>
-      <c r="D14">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D15">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0.16</v>
-      </c>
-      <c r="D17">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>0.17</v>
-      </c>
-      <c r="D18">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0.18</v>
-      </c>
-      <c r="D19">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>0.19</v>
-      </c>
-      <c r="D20">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0.21</v>
-      </c>
-      <c r="D22">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0.22</v>
-      </c>
-      <c r="D23">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0.23</v>
-      </c>
-      <c r="D24">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>0.24</v>
-      </c>
-      <c r="D25">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
-      </c>
-      <c r="D26">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>0.26</v>
-      </c>
-      <c r="D27">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>0.27</v>
-      </c>
-      <c r="D28">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D29">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D30">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>0.3</v>
-      </c>
-      <c r="D31">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>0.31</v>
-      </c>
-      <c r="D32">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0.32</v>
-      </c>
-      <c r="D33">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0.33</v>
-      </c>
-      <c r="D34">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>0.34</v>
-      </c>
-      <c r="D35">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>0.35</v>
-      </c>
-      <c r="D36">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0.36</v>
-      </c>
-      <c r="D37">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>0.37</v>
-      </c>
-      <c r="D38">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>0.38</v>
-      </c>
-      <c r="D39">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>0.39</v>
-      </c>
-      <c r="D40">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>0.4</v>
-      </c>
-      <c r="D41">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>0.41</v>
-      </c>
-      <c r="D42">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>0.42</v>
-      </c>
-      <c r="D43">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>0.43</v>
-      </c>
-      <c r="D44">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0.44</v>
-      </c>
-      <c r="D45">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>0.45</v>
-      </c>
-      <c r="D46">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>0.46</v>
-      </c>
-      <c r="D47">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>0.47</v>
-      </c>
-      <c r="D48">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>0.48</v>
-      </c>
-      <c r="D49">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>0.49</v>
-      </c>
-      <c r="D50">
-        <v>727</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mu_data.xlsx
+++ b/mu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDC927-D154-3447-AF1F-DFF4E00E35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F130A8C-A343-0746-9828-4DCB7B954DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_16000_7" sheetId="3" r:id="rId1"/>
@@ -13016,9 +13016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
